--- a/ЕГЭ/Варианты/2024/Вариант 2/Задание 22/22.xlsx
+++ b/ЕГЭ/Варианты/2024/Вариант 2/Задание 22/22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018593E9-A034-4D4B-9E45-BDC2E1329F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="2652" windowWidth="10800" windowHeight="9756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,11 +86,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -105,9 +115,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -123,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -198,23 +214,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -250,26 +249,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,21 +424,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C13"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,7 +450,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -478,10 +460,15 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -491,10 +478,15 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -504,8 +496,15 @@
       <c r="C4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f>B4+D3</f>
+        <v>27</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -515,8 +514,14 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -526,8 +531,15 @@
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>D4+B6</f>
+        <v>31</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -537,8 +549,15 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>D6+B7</f>
+        <v>40</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -548,8 +567,14 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -559,8 +584,14 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="5">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -570,8 +601,15 @@
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>D7+B10</f>
+        <v>55</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -581,8 +619,14 @@
       <c r="C11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="5">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -592,8 +636,15 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f>D6+B12</f>
+        <v>45</v>
+      </c>
+      <c r="E12" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -603,8 +654,15 @@
       <c r="C13" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f>D9+B13</f>
+        <v>21</v>
+      </c>
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
